--- a/repos.xlsx
+++ b/repos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF1C6B-2147-9C4F-BDD9-AFC9C86FEBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC04290C-8EE6-4741-AE11-67BC7FD9BC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32120" yWindow="1920" windowWidth="28040" windowHeight="17440" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
+    <workbookView xWindow="32120" yWindow="1920" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
   <sheets>
     <sheet name="software_tools" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>ena_scrape</t>
   </si>
@@ -215,6 +215,21 @@
   </si>
   <si>
     <t>analysing wave data from receptor screens</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>hpc_download_documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get external data onto HPC. </t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/hpc_download_documentation</t>
   </si>
 </sst>
 </file>
@@ -600,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A61AD26-2DEF-E045-838C-AE9BAFA9D578}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -819,63 +834,103 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6DDD31-3D0B-BB46-B206-37E6D0B2BD45}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://github.com/TeamMacLean/msc_laptop_image_installation" xr:uid="{B3A39A59-3A22-FB42-ADE9-4310C58AA18A}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://github.com/TeamMacLean/download_rawdata_to_hpc" xr:uid="{A1E0941F-7178-0140-82BC-6303E735A924}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://github.com/TeamMacLean/upload_data_to_tsl_sequences" xr:uid="{FD9FB1CF-8C6A-2643-8A06-F8D6C86C6D55}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://github.com/TeamMacLean/msc_laptop_image_installation" xr:uid="{B3A39A59-3A22-FB42-ADE9-4310C58AA18A}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://github.com/TeamMacLean/download_rawdata_to_hpc" xr:uid="{A1E0941F-7178-0140-82BC-6303E735A924}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://github.com/TeamMacLean/upload_data_to_tsl_sequences" xr:uid="{FD9FB1CF-8C6A-2643-8A06-F8D6C86C6D55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/repos.xlsx
+++ b/repos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jegoussc/Repositories/software_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC04290C-8EE6-4741-AE11-67BC7FD9BC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1415AF26-77EC-D94C-913C-E9A6C11AF97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32120" yWindow="1920" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
+    <workbookView xWindow="32120" yWindow="-6320" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
   <sheets>
     <sheet name="software_tools" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="manuscripts" sheetId="3" r:id="rId3"/>
     <sheet name="tutorials" sheetId="2" r:id="rId4"/>
     <sheet name="pipelines" sheetId="4" r:id="rId5"/>
+    <sheet name="analysis" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>ena_scrape</t>
   </si>
@@ -230,6 +231,18 @@
   </si>
   <si>
     <t>https://github.com/TeamMacLean/hpc_download_documentation</t>
+  </si>
+  <si>
+    <t>lichens</t>
+  </si>
+  <si>
+    <t>Analysis of lichens transcription experiment data from the squamulose R package.</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/CJ_NT_1563_23_23022022_lichens/blob/main/README.md</t>
+  </si>
+  <si>
+    <t>clara</t>
   </si>
 </sst>
 </file>
@@ -836,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6DDD31-3D0B-BB46-B206-37E6D0B2BD45}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,4 +1018,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86381A57-6E17-DB4E-9DDE-30C746BDBF0D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/repos.xlsx
+++ b/repos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jegoussc/Repositories/software_projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1415AF26-77EC-D94C-913C-E9A6C11AF97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD9E784A-21E7-2048-B18B-616A5A47D9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32120" yWindow="-6320" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
+    <workbookView xWindow="32120" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
   <sheets>
     <sheet name="software_tools" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <t>ena_scrape</t>
   </si>
@@ -243,6 +243,195 @@
   </si>
   <si>
     <t>clara</t>
+  </si>
+  <si>
+    <t>hsvfinder</t>
+  </si>
+  <si>
+    <t>Magic Wand implementation of hsv region finding in images</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/hsvfinder</t>
+  </si>
+  <si>
+    <t>besthr</t>
+  </si>
+  <si>
+    <t>bootstrap estimation of hr scores</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/besthr</t>
+  </si>
+  <si>
+    <t>general fluorescence image analysis</t>
+  </si>
+  <si>
+    <t>glowseeds</t>
+  </si>
+  <si>
+    <t>count fluorescent seeds in bf and fluo images</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/glowseeds</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/stomatameasurer</t>
+  </si>
+  <si>
+    <t>count stomata in FLEX images</t>
+  </si>
+  <si>
+    <t>stomatameasurer</t>
+  </si>
+  <si>
+    <t>redpatchcam</t>
+  </si>
+  <si>
+    <t>GUI for redpatch on Raspberry Pi</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/redpatchcam</t>
+  </si>
+  <si>
+    <t>fluorseg</t>
+  </si>
+  <si>
+    <t>Segment fluorescent images</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/fluorseg</t>
+  </si>
+  <si>
+    <t>basic_alignment</t>
+  </si>
+  <si>
+    <t>Tutorial on basic alignment on HPC</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/basic_alignment</t>
+  </si>
+  <si>
+    <t>phobiius_galaxy</t>
+  </si>
+  <si>
+    <t>Wrapper to run phobius in Galaxy</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/phobius_wrapper_tool</t>
+  </si>
+  <si>
+    <t>tsl-ramkrishna</t>
+  </si>
+  <si>
+    <t>signalp_galaxy_wrapper</t>
+  </si>
+  <si>
+    <t>Wrapper to run SignalP in galaxy</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/signalp_galaxy_wrappers</t>
+  </si>
+  <si>
+    <t>kamoun_image_analysis_tools</t>
+  </si>
+  <si>
+    <t>Some ia tools for kamoun group</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/kamoun_image_analysis_tools</t>
+  </si>
+  <si>
+    <t>atacr</t>
+  </si>
+  <si>
+    <t>Analysin cap seq count data</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/atacr</t>
+  </si>
+  <si>
+    <t>peak_Caller</t>
+  </si>
+  <si>
+    <t>finding peaks on waves from 384 well plates</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/peak_caller</t>
+  </si>
+  <si>
+    <t>geefu.io</t>
+  </si>
+  <si>
+    <t>JS version of genome browser</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/geefu.io</t>
+  </si>
+  <si>
+    <t>martinpage</t>
+  </si>
+  <si>
+    <t>ss_2017</t>
+  </si>
+  <si>
+    <t>Summer School 2017 Handbook</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/summer_school_handbook</t>
+  </si>
+  <si>
+    <t>pilar_corredor_lab_book</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/Lab_book_TSL</t>
+  </si>
+  <si>
+    <t>pdist</t>
+  </si>
+  <si>
+    <t>ruby distance methods</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/pdist</t>
+  </si>
+  <si>
+    <t>edwardchalstrey</t>
+  </si>
+  <si>
+    <t>candisnp</t>
+  </si>
+  <si>
+    <t>Find candidate SNPs webapp</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/candisnp</t>
+  </si>
+  <si>
+    <t>bioruby-samtools</t>
+  </si>
+  <si>
+    <t>samtools in ruby</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/bioruby-samtools</t>
+  </si>
+  <si>
+    <t>bioruby-svgenes</t>
+  </si>
+  <si>
+    <t>render genes in ruby</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/bioruby-svgenes</t>
+  </si>
+  <si>
+    <t>geefu</t>
+  </si>
+  <si>
+    <t>genome browser</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/gee_fu</t>
   </si>
 </sst>
 </file>
@@ -626,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A61AD26-2DEF-E045-838C-AE9BAFA9D578}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,6 +960,258 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -824,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2710C5CB-6A40-E940-8B28-B1545C5508AB}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,6 +1281,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -847,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6DDD31-3D0B-BB46-B206-37E6D0B2BD45}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,6 +1385,34 @@
         <v>63</v>
       </c>
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1024,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86381A57-6E17-DB4E-9DDE-30C746BDBF0D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/repos.xlsx
+++ b/repos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jegoussc/GitHub/software_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD9E784A-21E7-2048-B18B-616A5A47D9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E61C31-D00D-DE48-84C5-C24F8364E446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32120" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
   <sheets>
     <sheet name="software_tools" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
   <si>
     <t>ena_scrape</t>
   </si>
@@ -432,6 +432,18 @@
   </si>
   <si>
     <t>https://github.com/TeamMacLean/gee_fu</t>
+  </si>
+  <si>
+    <t>lichengo</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/lichengo</t>
+  </si>
+  <si>
+    <t>R package for GO analysis for lichen-forming organisms.</t>
+  </si>
+  <si>
+    <t>clara,danmaclean</t>
   </si>
 </sst>
 </file>
@@ -815,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A61AD26-2DEF-E045-838C-AE9BAFA9D578}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1215,7 +1227,24 @@
         <v>36</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C29" r:id="rId1" xr:uid="{74676056-0D65-F242-B2A5-7E8DBCB5DC45}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/repos.xlsx
+++ b/repos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jegoussc/GitHub/software_projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/software_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E61C31-D00D-DE48-84C5-C24F8364E446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF5629B-A686-B84F-A2B1-1B840625BABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="138">
   <si>
     <t>ena_scrape</t>
   </si>
@@ -444,6 +444,15 @@
   </si>
   <si>
     <t>clara,danmaclean</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>scripts for running raspberry pi device</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/device</t>
   </si>
 </sst>
 </file>
@@ -827,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A61AD26-2DEF-E045-838C-AE9BAFA9D578}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,6 +1248,20 @@
       </c>
       <c r="D29" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/repos.xlsx
+++ b/repos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/software_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF5629B-A686-B84F-A2B1-1B840625BABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2023D9C8-2346-2740-B94E-A69F0CEA6552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
   <si>
     <t>ena_scrape</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>https://github.com/TeamMacLean/device</t>
+  </si>
+  <si>
+    <t>hpc_use</t>
+  </si>
+  <si>
+    <t>tools for creating reports for HPC use, primarily for GLs and cost recovery</t>
   </si>
 </sst>
 </file>
@@ -836,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A61AD26-2DEF-E045-838C-AE9BAFA9D578}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1262,6 +1268,14 @@
       </c>
       <c r="D30" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/repos.xlsx
+++ b/repos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/software_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2023D9C8-2346-2740-B94E-A69F0CEA6552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56CBF71-2D42-CA49-A173-3027CDA068EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
+    <workbookView xWindow="31580" yWindow="10660" windowWidth="28800" windowHeight="16100" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
   <sheets>
     <sheet name="software_tools" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="146">
   <si>
     <t>ena_scrape</t>
   </si>
@@ -459,6 +459,24 @@
   </si>
   <si>
     <t>tools for creating reports for HPC use, primarily for GLs and cost recovery</t>
+  </si>
+  <si>
+    <t>af_interaction_screen</t>
+  </si>
+  <si>
+    <t>tools for running interaction screens with large numbers of proteins on AlphaFold</t>
+  </si>
+  <si>
+    <t>tsl_af_runner</t>
+  </si>
+  <si>
+    <t>tools for running AlphaFold 2 on the TSL HPC</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/tsl_af_runner</t>
+  </si>
+  <si>
+    <t>danmaclean,clara,alisonmacfadyen</t>
   </si>
 </sst>
 </file>
@@ -842,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A61AD26-2DEF-E045-838C-AE9BAFA9D578}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,6 +1294,28 @@
       </c>
       <c r="B31" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1369,6 +1409,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/repos.xlsx
+++ b/repos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/software_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56CBF71-2D42-CA49-A173-3027CDA068EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965CFE34-B1FE-8E4A-B266-4B738C49A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31580" yWindow="10660" windowWidth="28800" windowHeight="16100" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="148">
   <si>
     <t>ena_scrape</t>
   </si>
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>danmaclean,clara,alisonmacfadyen</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/af_interaction_screen</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/hpc_use</t>
   </si>
 </sst>
 </file>
@@ -862,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A61AD26-2DEF-E045-838C-AE9BAFA9D578}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,6 +1301,12 @@
       <c r="B31" t="s">
         <v>139</v>
       </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1302,6 +1314,12 @@
       </c>
       <c r="B32" t="s">
         <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">

--- a/repos.xlsx
+++ b/repos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/software_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965CFE34-B1FE-8E4A-B266-4B738C49A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E4ECF-7C40-6943-92E7-0F09A447E0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31580" yWindow="10660" windowWidth="28800" windowHeight="16100" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
   <si>
     <t>ena_scrape</t>
   </si>
@@ -483,6 +483,27 @@
   </si>
   <si>
     <t>https://github.com/TeamMacLean/hpc_use</t>
+  </si>
+  <si>
+    <t>GRAND Paper associated Code</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/GRAND_Code</t>
+  </si>
+  <si>
+    <t>grand manuscript</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/grand</t>
+  </si>
+  <si>
+    <t>tracking</t>
+  </si>
+  <si>
+    <t>basic object tracking in py</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/tracking</t>
   </si>
 </sst>
 </file>
@@ -570,9 +591,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -610,7 +631,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -716,7 +737,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -858,7 +879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -866,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A61AD26-2DEF-E045-838C-AE9BAFA9D578}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1334,6 +1355,17 @@
       </c>
       <c r="D33" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1389,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2710C5CB-6A40-E940-8B28-B1545C5508AB}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1411,6 +1443,22 @@
       </c>
       <c r="B2" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/repos.xlsx
+++ b/repos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/software_projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taz23vul/Documents/TSL_Associated/Github/TeamMacLean/software_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E4ECF-7C40-6943-92E7-0F09A447E0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567AA31C-7347-C24F-9A9D-DABF2BA37CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31580" yWindow="10660" windowWidth="28800" windowHeight="16100" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
+    <workbookView xWindow="280" yWindow="880" windowWidth="28800" windowHeight="16100" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
   <sheets>
     <sheet name="software_tools" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="159">
   <si>
     <t>ena_scrape</t>
   </si>
@@ -504,6 +504,18 @@
   </si>
   <si>
     <t>https://github.com/TeamMacLean/tracking</t>
+  </si>
+  <si>
+    <t>MC_SF_1932_07012025_process_TTS_for_CRF_Form</t>
+  </si>
+  <si>
+    <t>Tool for converting TTS into correct format for CRF forms</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/MC_SF_1932_07012025_process_TTS_for_CRF_Form</t>
+  </si>
+  <si>
+    <t>alisonmacfadyen</t>
   </si>
 </sst>
 </file>
@@ -887,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A61AD26-2DEF-E045-838C-AE9BAFA9D578}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,6 +1378,20 @@
       </c>
       <c r="C34" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/repos.xlsx
+++ b/repos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taz23vul/Documents/TSL_Associated/Github/TeamMacLean/software_projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/software_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567AA31C-7347-C24F-9A9D-DABF2BA37CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471CDD11-977F-CA48-AD45-F28EDC709776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="880" windowWidth="28800" windowHeight="16100" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
+    <workbookView xWindow="30180" yWindow="5100" windowWidth="15220" windowHeight="20180" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
   <sheets>
     <sheet name="software_tools" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="176">
   <si>
     <t>ena_scrape</t>
   </si>
@@ -516,6 +516,57 @@
   </si>
   <si>
     <t>alisonmacfadyen</t>
+  </si>
+  <si>
+    <t>omnieff</t>
+  </si>
+  <si>
+    <t>many effector predictions as per predector</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/omnieff</t>
+  </si>
+  <si>
+    <t>tsl_af3_tools</t>
+  </si>
+  <si>
+    <t>running AF3 on the cluster with cleanup</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/tsl_af3_tools</t>
+  </si>
+  <si>
+    <t>danmaclean,alisonmacfadyen</t>
+  </si>
+  <si>
+    <t>splitting Magnaporthe from rice reads</t>
+  </si>
+  <si>
+    <t>Mo_kallisto_count</t>
+  </si>
+  <si>
+    <t>counting Magnaporthe transcriptomic reads on HPC</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/Mo_kallisto_count</t>
+  </si>
+  <si>
+    <t>tslplex</t>
+  </si>
+  <si>
+    <t>running the TSL tplex pipeline</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/tslplex</t>
+  </si>
+  <si>
+    <t>blank_snake</t>
+  </si>
+  <si>
+    <t>blank snakemake project repo</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/blank_snake</t>
   </si>
 </sst>
 </file>
@@ -899,13 +950,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A61AD26-2DEF-E045-838C-AE9BAFA9D578}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1392,6 +1446,90 @@
       </c>
       <c r="D35" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/repos.xlsx
+++ b/repos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/software_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471CDD11-977F-CA48-AD45-F28EDC709776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A873D95F-E5CA-AD40-A704-512F92C4C676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30180" yWindow="5100" windowWidth="15220" windowHeight="20180" xr2:uid="{CCCA6E0C-6F9D-4847-8935-3F469645A3E2}"/>
   </bookViews>
@@ -455,12 +455,6 @@
     <t>https://github.com/TeamMacLean/device</t>
   </si>
   <si>
-    <t>hpc_use</t>
-  </si>
-  <si>
-    <t>tools for creating reports for HPC use, primarily for GLs and cost recovery</t>
-  </si>
-  <si>
     <t>af_interaction_screen</t>
   </si>
   <si>
@@ -482,9 +476,6 @@
     <t>https://github.com/TeamMacLean/af_interaction_screen</t>
   </si>
   <si>
-    <t>https://github.com/TeamMacLean/hpc_use</t>
-  </si>
-  <si>
     <t>GRAND Paper associated Code</t>
   </si>
   <si>
@@ -567,6 +558,15 @@
   </si>
   <si>
     <t>https://github.com/TeamMacLean/blank_snake</t>
+  </si>
+  <si>
+    <t>hpc_mgmt_tools</t>
+  </si>
+  <si>
+    <t>tools for monitoring and reports on HPC</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/hpc_mgmt_tools</t>
   </si>
 </sst>
 </file>
@@ -953,7 +953,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1389,7 +1389,7 @@
         <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -1403,24 +1403,21 @@
         <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1433,19 +1430,22 @@
       <c r="C34" t="s">
         <v>154</v>
       </c>
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,35 +1459,35 @@
         <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" t="s">
         <v>166</v>
       </c>
-      <c r="C38" t="s">
-        <v>43</v>
-      </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1501,7 +1501,7 @@
         <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1611,18 +1611,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
